--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\NSBOT1.IS\Desktop\Projects\wyndham-investorstip-amerihome\Data\"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>Name</t>
   </si>
@@ -135,9 +135,6 @@
     <t>Extracted pipeline data from encompass</t>
   </si>
   <si>
-    <t>Data\Temp\PipelineData.xlsx</t>
-  </si>
-  <si>
     <t>Data\Output</t>
   </si>
   <si>
@@ -150,9 +147,6 @@
     <t>LogFilePath</t>
   </si>
   <si>
-    <t>https://connect.amerihome.com/#/content/home_202607</t>
-  </si>
-  <si>
     <t>WebURL</t>
   </si>
   <si>
@@ -160,6 +154,33 @@
   </si>
   <si>
     <t>AmeriHome</t>
+  </si>
+  <si>
+    <t>EncompassPipelineView</t>
+  </si>
+  <si>
+    <t>UiPath - PC - Amerihome</t>
+  </si>
+  <si>
+    <t>AmeriHome Portal</t>
+  </si>
+  <si>
+    <t>EncompassPath</t>
+  </si>
+  <si>
+    <t>Encompass Path</t>
+  </si>
+  <si>
+    <t>Execution path for encompass</t>
+  </si>
+  <si>
+    <t>EmailRecipients</t>
+  </si>
+  <si>
+    <t>For multiple recipients, use ; as a separator ex@mail.com;ex@mail.com</t>
+  </si>
+  <si>
+    <t>Data\Temp\Book1.xlsx</t>
   </si>
 </sst>
 </file>
@@ -544,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z999"/>
+  <dimension ref="A1:Z1003"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -610,81 +631,111 @@
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="5" spans="1:26">
-      <c r="A5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>44</v>
-      </c>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+    <row r="7" spans="1:26">
+      <c r="A7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>35</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="2"/>
+      <c r="C12" s="2"/>
     </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A12" t="s">
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B16" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -1668,10 +1719,14 @@
     <row r="997" ht="14.25" customHeight="1"/>
     <row r="998" ht="14.25" customHeight="1"/>
     <row r="999" ht="14.25" customHeight="1"/>
+    <row r="1000" ht="14.25" customHeight="1"/>
+    <row r="1001" ht="14.25" customHeight="1"/>
+    <row r="1002" ht="14.25" customHeight="1"/>
+    <row r="1003" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" location="/content/home_202607"/>
+    <hyperlink ref="B6" r:id="rId1" location="/content/home_202607" display="https://connect.amerihome.com/#/content/home_202607"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t>Name</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>Data\Temp\Book1.xlsx</t>
+  </si>
+  <si>
+    <t>CustomerWyndham@neostella.com</t>
   </si>
 </sst>
 </file>
@@ -568,7 +571,7 @@
   <dimension ref="A1:Z1003"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -719,7 +722,9 @@
       <c r="A14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="C14" s="2" t="s">
         <v>50</v>
       </c>
@@ -1727,9 +1732,10 @@
   <phoneticPr fontId="2"/>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" location="/content/home_202607" display="https://connect.amerihome.com/#/content/home_202607"/>
+    <hyperlink ref="B14" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -183,7 +183,7 @@
     <t>Data\Temp\Book1.xlsx</t>
   </si>
   <si>
-    <t>CustomerWyndham@neostella.com</t>
+    <t>tenisha.laney@wyndhamcapital.com</t>
   </si>
 </sst>
 </file>
@@ -571,7 +571,7 @@
   <dimension ref="A1:Z1003"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
